--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,31 +46,40 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>defective</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>cheap</t>
   </si>
   <si>
     <t>negative</t>
@@ -82,58 +91,73 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>family</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>glad</t>
@@ -142,70 +166,64 @@
     <t>cooke</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>husband</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>popcorn</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>always</t>
@@ -214,22 +232,10 @@
     <t>cream</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>nicely</t>
@@ -238,124 +244,124 @@
     <t>day</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>maker</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>making</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
     <t>also</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>better</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>product</t>
@@ -719,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,10 +733,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -788,13 +794,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9310344827586207</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -806,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9354838709677419</v>
@@ -838,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -856,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -888,13 +894,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.8699690402476781</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>562</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>562</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -938,37 +944,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4905660377358491</v>
+        <v>0.575</v>
       </c>
       <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1009,16 +1015,16 @@
         <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1030,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1059,16 +1065,16 @@
         <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1080,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1088,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1106,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1130,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1138,13 +1144,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.217948717948718</v>
+        <v>0.36</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1156,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.726027397260274</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1180,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1188,13 +1194,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1650485436893204</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1206,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7229437229437229</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1230,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1238,13 +1244,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1621621621621622</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1256,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.6888888888888889</v>
+        <v>0.65625</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1280,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1288,63 +1294,87 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1610169491525424</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>153</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>0.6524879614767255</v>
+      </c>
+      <c r="L13">
+        <v>813</v>
+      </c>
+      <c r="M13">
+        <v>813</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>99</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.6883116883116883</v>
-      </c>
-      <c r="L13">
-        <v>53</v>
-      </c>
-      <c r="M13">
-        <v>53</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="B14">
+        <v>0.1694915254237288</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>98</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.6847457627118644</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1356,48 +1386,96 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.145631067961165</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>88</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.671875</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L15">
+        <v>42</v>
+      </c>
+      <c r="M15">
+        <v>42</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.08717948717948718</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>178</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="L16">
         <v>43</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>43</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16">
-        <v>0.6619718309859155</v>
-      </c>
-      <c r="L16">
-        <v>47</v>
-      </c>
-      <c r="M16">
-        <v>47</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1408,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.6470588235294118</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.6332263242375602</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L18">
-        <v>789</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>789</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>457</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.6057142857142858</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.5789473684210527</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1512,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.5769230769230769</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1538,15 +1616,15 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.5714285714285714</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="L22">
         <v>40</v>
@@ -1564,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.5625</v>
+        <v>0.5449101796407185</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1590,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.5394736842105263</v>
+      </c>
+      <c r="L24">
         <v>41</v>
       </c>
-      <c r="K24">
-        <v>0.5470085470085471</v>
-      </c>
-      <c r="L24">
-        <v>64</v>
-      </c>
       <c r="M24">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1616,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1642,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5089820359281437</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="L26">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1668,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5060240963855421</v>
+        <v>0.51</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1694,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>0.5</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1720,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1746,12 +1824,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K30">
         <v>0.4912280701754386</v>
@@ -1777,16 +1855,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.4814814814814815</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1798,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.4578313253012048</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L32">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M32">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1824,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4444444444444444</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1850,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.443609022556391</v>
+        <v>0.4124513618677043</v>
       </c>
       <c r="L34">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1876,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>74</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.3995098039215687</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1902,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.4262295081967213</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1928,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.4153846153846154</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1954,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.4102564102564102</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1980,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.4102564102564102</v>
+        <v>0.3643835616438356</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2006,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>23</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.3963963963963964</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2032,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.3813229571984436</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L41">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2058,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>159</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.375</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2084,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.3726027397260274</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L43">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2110,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>458</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.3627450980392157</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L44">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2136,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>260</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.3383458646616541</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2162,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.3381294964028777</v>
+        <v>0.3110047846889952</v>
       </c>
       <c r="L46">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M46">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2188,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>92</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.3333333333333333</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2214,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.3088235294117647</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2240,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.3061224489795918</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2266,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>34</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.3061224489795918</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2292,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.2741935483870968</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2318,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.2727272727272727</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L52">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2344,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>152</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.2727272727272727</v>
+        <v>0.2723358449946179</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2370,47 +2448,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>40</v>
+        <v>676</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.271523178807947</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L54">
+        <v>15</v>
+      </c>
+      <c r="M54">
+        <v>15</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>41</v>
-      </c>
-      <c r="M54">
-        <v>41</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>110</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.2678571428571428</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2422,21 +2500,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.2574257425742574</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2448,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.2551130247578041</v>
+        <v>0.2327365728900256</v>
       </c>
       <c r="L57">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="M57">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2474,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>692</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>0.25</v>
+        <v>0.2278145695364238</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2500,47 +2578,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>57</v>
+        <v>583</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K59">
-        <v>0.25</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L59">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="M59">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N59">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>84</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K60">
-        <v>0.2314814814814815</v>
+        <v>0.2</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2552,47 +2630,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K61">
-        <v>0.2185430463576159</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L61">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>590</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K62">
-        <v>0.2068965517241379</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L62">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M62">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2604,99 +2682,99 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>253</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K63">
-        <v>0.2</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>68</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K64">
-        <v>0.1984635083226632</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="L64">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="N64">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O64">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>626</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65">
+        <v>0.18</v>
+      </c>
+      <c r="L65">
+        <v>18</v>
+      </c>
+      <c r="M65">
+        <v>18</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>82</v>
-      </c>
-      <c r="K65">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="L65">
-        <v>21</v>
-      </c>
-      <c r="M65">
-        <v>21</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>90</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K66">
-        <v>0.1829268292682927</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2708,21 +2786,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K67">
-        <v>0.1812080536912752</v>
+        <v>0.1551312649164678</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2734,21 +2812,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>122</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K68">
-        <v>0.1714285714285714</v>
+        <v>0.15</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2760,21 +2838,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>87</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K69">
-        <v>0.1694915254237288</v>
+        <v>0.1469298245614035</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2786,47 +2864,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>147</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K70">
-        <v>0.1626794258373206</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="L70">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M70">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="N70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>350</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K71">
-        <v>0.162280701754386</v>
+        <v>0.1452991452991453</v>
       </c>
       <c r="L71">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="M71">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2838,47 +2916,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>382</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K72">
-        <v>0.1617250673854447</v>
+        <v>0.1449814126394052</v>
       </c>
       <c r="L72">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M72">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>311</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K73">
-        <v>0.1559633027522936</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2890,21 +2968,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K74">
-        <v>0.1538461538461539</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2916,21 +2994,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K75">
-        <v>0.1512915129151292</v>
+        <v>0.1338199513381995</v>
       </c>
       <c r="L75">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M75">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2942,99 +3020,99 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>230</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K76">
-        <v>0.1512195121951219</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L76">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="M76">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>348</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K77">
-        <v>0.1477272727272727</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="L77">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M77">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>375</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K78">
-        <v>0.1428571428571428</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="L78">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M78">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>108</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K79">
-        <v>0.1367521367521368</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3046,47 +3124,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K80">
-        <v>0.1288343558282209</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="L80">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M80">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K81">
-        <v>0.1237113402061856</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L81">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M81">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3098,21 +3176,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>255</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K82">
-        <v>0.1153846153846154</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L82">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3124,21 +3202,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K83">
-        <v>0.1111111111111111</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3150,371 +3228,345 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>136</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K84">
-        <v>0.103960396039604</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="L84">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M84">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N84">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O84">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>181</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K85">
-        <v>0.1037037037037037</v>
+        <v>0.1036585365853658</v>
       </c>
       <c r="L85">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>242</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K86">
-        <v>0.1008403361344538</v>
+        <v>0.09182209469153516</v>
       </c>
       <c r="L86">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M86">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>214</v>
+        <v>633</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K87">
-        <v>0.09195402298850575</v>
+        <v>0.08776844070961717</v>
       </c>
       <c r="L87">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="M87">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="N87">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O87">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>632</v>
+        <v>977</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K88">
-        <v>0.09073900841908325</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="L88">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="M88">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N88">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>972</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K89">
-        <v>0.08870967741935484</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="L89">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K90">
-        <v>0.08469945355191257</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="L90">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M90">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>335</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K91">
-        <v>0.06839186691312385</v>
+        <v>0.06053268765133172</v>
       </c>
       <c r="L91">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M91">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N91">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O91">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>504</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K92">
-        <v>0.0625</v>
+        <v>0.05887445887445888</v>
       </c>
       <c r="L92">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M92">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>255</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K93">
-        <v>0.06077348066298342</v>
+        <v>0.05852417302798982</v>
       </c>
       <c r="L93">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M93">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N93">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O93">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K94">
-        <v>0.0576923076923077</v>
+        <v>0.0440771349862259</v>
       </c>
       <c r="L94">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M94">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N94">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O94">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>490</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K95">
-        <v>0.04611650485436893</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M95">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N95">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>393</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K96">
-        <v>0.04592720970537262</v>
+        <v>0.02230971128608924</v>
       </c>
       <c r="L96">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="M96">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N96">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="O96">
-        <v>0.05000000000000004</v>
+        <v>0.23</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="97" spans="10:17">
-      <c r="J97" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K97">
-        <v>0.02763157894736842</v>
-      </c>
-      <c r="L97">
-        <v>21</v>
-      </c>
-      <c r="M97">
-        <v>28</v>
-      </c>
-      <c r="N97">
-        <v>0.75</v>
-      </c>
-      <c r="O97">
-        <v>0.25</v>
-      </c>
-      <c r="P97" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q97">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
